--- a/experiment result/4096_0.4_40_zs40_kappa_lp.xlsx
+++ b/experiment result/4096_0.4_40_zs40_kappa_lp.xlsx
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.003890461207358675</v>
+        <v>0.003892714999800264</v>
       </c>
     </row>
     <row r="46">
